--- a/algoritmi.xlsx
+++ b/algoritmi.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yelja\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yelja\Desktop\PRS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD11CD4E-7A78-4F01-9B92-6D8DFF15D6C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FB7167-A91B-4711-A2F7-CBEFE7487DC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A54C7A4A-AE82-4F91-B10F-0D4CB631609E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t>Dužina niza</t>
   </si>
@@ -214,9 +214,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="sr-Latn-BA"/>
-              <a:t>Sekvencijalni quick i merge</a:t>
+              <a:t>Sekvencijalni </a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>do 50,000,000</a:t>
+            </a:r>
           </a:p>
         </c:rich>
       </c:tx>
@@ -304,83 +307,12 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="17"/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000030-6B1A-43E5-B0BC-43F948E4B7E4}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$20</c:f>
+              <c:f>Sheet1!$B$3:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -431,19 +363,16 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>75000000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>100000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$20</c:f>
+              <c:f>Sheet1!$C$3:$C$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -470,27 +399,6 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>76006</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -541,83 +449,12 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="17"/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000031-6B1A-43E5-B0BC-43F948E4B7E4}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$20</c:f>
+              <c:f>Sheet1!$B$3:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -668,19 +505,16 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>75000000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>100000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$20</c:f>
+              <c:f>Sheet1!$D$3:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -707,27 +541,6 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>27226</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -778,83 +591,12 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="17"/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000032-6B1A-43E5-B0BC-43F948E4B7E4}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$20</c:f>
+              <c:f>Sheet1!$B$3:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -905,19 +647,16 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>75000000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>100000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$3:$E$20</c:f>
+              <c:f>Sheet1!$E$3:$E$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -944,27 +683,6 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>11798</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1013,83 +731,12 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="17"/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000033-6B1A-43E5-B0BC-43F948E4B7E4}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$20</c:f>
+              <c:f>Sheet1!$B$3:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -1140,19 +787,16 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>75000000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>100000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$3:$F$20</c:f>
+              <c:f>Sheet1!$F$3:$F$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1200,9 +844,6 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>52934</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1251,83 +892,12 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="17"/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000034-6B1A-43E5-B0BC-43F948E4B7E4}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$20</c:f>
+              <c:f>Sheet1!$B$3:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -1378,19 +948,16 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>75000000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>100000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$3:$G$20</c:f>
+              <c:f>Sheet1!$G$3:$G$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1441,9 +1008,6 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>82493</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1566,6 +1130,1223 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="294371208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="294371208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Vrijeme izvr</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="sr-Latn-BA"/>
+                  <a:t>šenja</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.2497323711937011E-2"/>
+              <c:y val="0.46683377838846835"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="294370880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>pARALELNI</a:t>
+            </a:r>
+            <a:endParaRPr lang="sr-Latn-BA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18873736041660283"/>
+          <c:y val="7.6563599688572265E-2"/>
+          <c:w val="0.66771346078707627"/>
+          <c:h val="0.82169233995036006"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bubble P</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$23:$B$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>50000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$23:$C$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6606</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21812</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>33695</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>68414</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4815-48D1-9ECC-96ED75201F8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Insertion P</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$23:$B$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>50000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$23:$D$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>946</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3353</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5910</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22063</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32539</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>74227</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4815-48D1-9ECC-96ED75201F8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Selection P</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$23:$B$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>50000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$23:$E$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>545</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2068</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4362</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12829</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27749</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>51084</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-4815-48D1-9ECC-96ED75201F8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Merge P</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$23:$B$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>50000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$23:$F$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>985</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1018</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2907</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4966</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14912</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>31029</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>46809</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-4815-48D1-9ECC-96ED75201F8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quick P</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$23:$B$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>50000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$23:$G$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3471</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6316</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18453</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>33763</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>47321</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-4815-48D1-9ECC-96ED75201F8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="294370880"/>
+        <c:axId val="294371208"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="294370880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sr-Latn-BA"/>
+                  <a:t>Broj članova niza</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1782,647 +2563,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="sr-Latn-BA"/>
-              <a:t>Sekvencijalni</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="sr-Latn-BA" baseline="0"/>
-              <a:t> bubble, merge, selection</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Bubble S</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$3:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>75000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$3:$C$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>570</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4769</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>22830</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>59191</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>76006</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E469-4028-B8C2-0DAC365756CA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Insertion S</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$3:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>75000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$3:$D$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>211</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1596</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7167</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15785</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>27226</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E469-4028-B8C2-0DAC365756CA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Selection S</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$3:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>75000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$E$3:$E$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>156</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>719</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2857</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6236</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11798</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E469-4028-B8C2-0DAC365756CA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="463072032"/>
-        <c:axId val="463071704"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="463072032"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="463071704"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="463071704"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="463072032"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -2457,8 +2597,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="sr-Latn-BA"/>
-              <a:t>Paralelni quick i merge</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>Svi algoritmi</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2500,7 +2640,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.18873736041660283"/>
-          <c:y val="7.6563599688572265E-2"/>
+          <c:y val="7.2435069104125116E-2"/>
           <c:w val="0.66771346078707627"/>
           <c:h val="0.82169233995036006"/>
         </c:manualLayout>
@@ -2513,11 +2653,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$22</c:f>
+              <c:f>Sheet1!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Bubble P</c:v>
+                  <c:v>Bubble S</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2549,7 +2689,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$23:$B$38</c:f>
+              <c:f>Sheet1!$B$3:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2606,57 +2746,36 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$23:$C$38</c:f>
+              <c:f>Sheet1!$C$3:$C$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49</c:v>
+                  <c:v>570</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>66</c:v>
+                  <c:v>4769</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>80</c:v>
+                  <c:v>22830</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>160</c:v>
+                  <c:v>59191</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>580</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3400</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6606</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>21812</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>33695</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>68414</c:v>
+                  <c:v>76006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2664,7 +2783,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4815-48D1-9ECC-96ED75201F8E}"/>
+              <c16:uniqueId val="{00000001-BC3E-423B-9324-D43D9DC4248A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2673,11 +2792,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$22</c:f>
+              <c:f>Sheet1!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Insertion P</c:v>
+                  <c:v>Insertion S</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2709,7 +2828,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$23:$B$38</c:f>
+              <c:f>Sheet1!$B$3:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2766,12 +2885,12 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$23:$D$38</c:f>
+              <c:f>Sheet1!$D$3:$D$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5</c:v>
@@ -2780,43 +2899,22 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24</c:v>
+                  <c:v>211</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>67</c:v>
+                  <c:v>1596</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>127</c:v>
+                  <c:v>7167</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>140</c:v>
+                  <c:v>15785</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>580</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>946</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3353</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5910</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>22063</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>32539</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>74227</c:v>
+                  <c:v>27226</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2824,7 +2922,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-4815-48D1-9ECC-96ED75201F8E}"/>
+              <c16:uniqueId val="{00000003-BC3E-423B-9324-D43D9DC4248A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2833,11 +2931,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$22</c:f>
+              <c:f>Sheet1!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Selection P</c:v>
+                  <c:v>Selection S</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2869,7 +2967,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$23:$B$38</c:f>
+              <c:f>Sheet1!$B$3:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2926,57 +3024,36 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$23:$E$38</c:f>
+              <c:f>Sheet1!$E$3:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>9</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>29</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>75</c:v>
+                  <c:v>719</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>90</c:v>
+                  <c:v>2857</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>124</c:v>
+                  <c:v>6236</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>545</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>805</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2068</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4362</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>12829</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>27749</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>51084</c:v>
+                  <c:v>11798</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2984,7 +3061,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-4815-48D1-9ECC-96ED75201F8E}"/>
+              <c16:uniqueId val="{00000005-BC3E-423B-9324-D43D9DC4248A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2993,11 +3070,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$22</c:f>
+              <c:f>Sheet1!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Merge P</c:v>
+                  <c:v>Merge S</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3027,7 +3104,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$23:$B$38</c:f>
+              <c:f>Sheet1!$B$3:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3084,57 +3161,57 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$23:$F$38</c:f>
+              <c:f>Sheet1!$F$3:$F$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>21</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>18</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>289</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>141</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>193</c:v>
+                  <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>985</c:v>
+                  <c:v>568</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1018</c:v>
+                  <c:v>901</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2907</c:v>
+                  <c:v>3756</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4966</c:v>
+                  <c:v>7966</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14912</c:v>
+                  <c:v>31611</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>31029</c:v>
+                  <c:v>51616</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>46809</c:v>
+                  <c:v>52934</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3142,7 +3219,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-4815-48D1-9ECC-96ED75201F8E}"/>
+              <c16:uniqueId val="{00000007-BC3E-423B-9324-D43D9DC4248A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3151,11 +3228,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$22</c:f>
+              <c:f>Sheet1!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Quick P</c:v>
+                  <c:v>Quick S</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3185,7 +3262,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$23:$B$38</c:f>
+              <c:f>Sheet1!$B$3:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3242,57 +3319,57 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$23:$G$38</c:f>
+              <c:f>Sheet1!$G$3:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>17</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>75</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>196</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>145</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>132</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>789</c:v>
+                  <c:v>282</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>950</c:v>
+                  <c:v>511</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3471</c:v>
+                  <c:v>3220</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6316</c:v>
+                  <c:v>7207</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18453</c:v>
+                  <c:v>21299</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>33763</c:v>
+                  <c:v>39907</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>47321</c:v>
+                  <c:v>46993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3300,7 +3377,827 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-4815-48D1-9ECC-96ED75201F8E}"/>
+              <c16:uniqueId val="{00000009-BC3E-423B-9324-D43D9DC4248A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bubble P</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>50000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$3:$H$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6606</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21812</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>33695</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>68414</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-BC3E-423B-9324-D43D9DC4248A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Insertion P</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="plus"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>50000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$3:$I$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>946</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3353</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5910</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22063</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32539</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>74227</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-BC3E-423B-9324-D43D9DC4248A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Selection P</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dot"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>50000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$3:$J$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>545</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2068</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4362</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12829</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27749</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>51084</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-BC3E-423B-9324-D43D9DC4248A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Merge P</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dash"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>50000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$3:$K$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>985</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1018</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2907</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4966</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14912</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>31029</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>46809</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-BC3E-423B-9324-D43D9DC4248A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quick P</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>50000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$3:$L$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3471</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6316</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18453</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>33763</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>47321</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-BC3E-423B-9324-D43D9DC4248A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3652,7 +4549,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3666,13 +4563,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="sr-Latn-BA"/>
-              <a:t>Sekvencijalni quick</a:t>
+              <a:t>Sekvencijalni</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="sr-Latn-BA" baseline="0"/>
-              <a:t> i merge</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t> do 25,000</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3689,7 +4585,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3736,7 +4632,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -3745,8 +4641,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -3755,16 +4651,17 @@
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$18</c:f>
+              <c:f>Sheet1!$B$3:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -3782,46 +4679,16 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>75000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>500000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1000000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5000000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10000000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>25000000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>40000000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>50000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$18</c:f>
+              <c:f>Sheet1!$C$3:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3839,36 +4706,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>4769</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>22830</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>59191</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>76006</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3876,7 +4713,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BC3E-423B-9324-D43D9DC4248A}"/>
+              <c16:uniqueId val="{00000000-ADBF-45EE-9A80-70C1FB0D572F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3895,7 +4732,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -3904,8 +4741,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -3914,16 +4751,17 @@
                 <a:solidFill>
                   <a:schemeClr val="accent2"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$18</c:f>
+              <c:f>Sheet1!$B$3:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -3941,46 +4779,16 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>75000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>500000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1000000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5000000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10000000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>25000000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>40000000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>50000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$18</c:f>
+              <c:f>Sheet1!$D$3:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3998,36 +4806,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1596</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7167</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15785</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>27226</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4035,7 +4813,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-BC3E-423B-9324-D43D9DC4248A}"/>
+              <c16:uniqueId val="{00000001-ADBF-45EE-9A80-70C1FB0D572F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4054,7 +4832,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -4063,8 +4841,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
@@ -4073,16 +4851,17 @@
                 <a:solidFill>
                   <a:schemeClr val="accent3"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$18</c:f>
+              <c:f>Sheet1!$B$3:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -4100,46 +4879,16 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>75000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>500000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1000000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5000000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10000000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>25000000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>40000000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>50000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$3:$E$18</c:f>
+              <c:f>Sheet1!$E$3:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4157,36 +4906,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>719</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2857</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6236</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11798</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4194,7 +4913,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-BC3E-423B-9324-D43D9DC4248A}"/>
+              <c16:uniqueId val="{00000002-ADBF-45EE-9A80-70C1FB0D572F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4213,7 +4932,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -4222,26 +4941,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent4"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$18</c:f>
+              <c:f>Sheet1!$B$3:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -4259,46 +4977,16 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>75000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>500000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1000000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5000000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10000000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>25000000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>40000000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>50000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$3:$F$18</c:f>
+              <c:f>Sheet1!$F$3:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4316,36 +5004,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>158</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>568</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>901</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3756</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7966</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>31611</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>51616</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>52934</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4353,7 +5011,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-BC3E-423B-9324-D43D9DC4248A}"/>
+              <c16:uniqueId val="{00000003-ADBF-45EE-9A80-70C1FB0D572F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4372,7 +5030,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
@@ -4381,26 +5039,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent5"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$18</c:f>
+              <c:f>Sheet1!$B$3:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -4418,46 +5075,16 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>75000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>500000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1000000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5000000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10000000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>25000000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>40000000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>50000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$3:$G$18</c:f>
+              <c:f>Sheet1!$G$3:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4475,36 +5102,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>282</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>511</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3220</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7207</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>21299</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>39907</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>46993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4512,826 +5109,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-BC3E-423B-9324-D43D9DC4248A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$H$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Bubble P</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$3:$B$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>75000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>500000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1000000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5000000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10000000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>25000000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>40000000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>50000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$H$3:$H$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>580</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3400</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6606</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>21812</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>33695</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>68414</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-BC3E-423B-9324-D43D9DC4248A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$I$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Insertion P</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$3:$B$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>75000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>500000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1000000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5000000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10000000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>25000000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>40000000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>50000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$I$3:$I$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>580</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>946</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3353</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5910</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>22063</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>32539</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>74227</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-BC3E-423B-9324-D43D9DC4248A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$J$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Selection P</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$3:$B$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>75000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>500000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1000000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5000000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10000000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>25000000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>40000000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>50000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$J$3:$J$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>545</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>805</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2068</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4362</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>12829</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>27749</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>51084</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-BC3E-423B-9324-D43D9DC4248A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$K$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Merge P</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$3:$B$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>75000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>500000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1000000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5000000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10000000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>25000000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>40000000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>50000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$K$3:$K$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>289</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>193</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>985</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1018</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2907</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4966</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14912</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>31029</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>46809</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000D-BC3E-423B-9324-D43D9DC4248A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$L$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Quick P</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$3:$B$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>75000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>500000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1000000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5000000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10000000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>25000000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>40000000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>50000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$L$3:$L$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>196</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>789</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>950</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3471</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6316</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>18453</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>33763</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>47321</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000E-BC3E-423B-9324-D43D9DC4248A}"/>
+              <c16:uniqueId val="{00000004-ADBF-45EE-9A80-70C1FB0D572F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5353,6 +5131,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -5360,7 +5152,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -5373,14 +5165,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="sr-Latn-BA" sz="1400"/>
-                  <a:t>Broj članova</a:t>
+                  <a:rPr lang="sr-Latn-BA"/>
+                  <a:t>Broj članova niza</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="sr-Latn-BA" sz="1400" baseline="0"/>
-                  <a:t> niza</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" sz="1400"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -5397,7 +5185,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -5422,8 +5210,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -5435,7 +5223,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5482,7 +5270,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -5495,17 +5283,25 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:rPr lang="en-US"/>
                   <a:t>Vrijeme izvr</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="sr-Latn-BA" sz="1400"/>
+                  <a:rPr lang="sr-Latn-BA"/>
                   <a:t>šenja</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" sz="1400"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.3826750060757722E-3"/>
+              <c:y val="0.49733535499391934"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5519,7 +5315,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -5543,9 +5339,9 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -5585,7 +5381,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="t"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5621,7 +5417,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -6333,7 +6129,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="241">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6344,7 +6140,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -6360,25 +6156,25 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -6390,7 +6186,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -6398,11 +6194,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -6434,35 +6230,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -6474,22 +6280,26 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -6519,15 +6329,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -6537,7 +6345,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -6546,14 +6354,13 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -6562,17 +6369,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -6581,10 +6387,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
@@ -6600,21 +6406,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -6633,17 +6433,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -6652,36 +6451,34 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -6702,7 +6499,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -6710,7 +6507,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -6723,6 +6520,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -6730,10 +6538,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -6754,7 +6562,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -6763,14 +6571,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -6784,27 +6591,26 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -6821,9 +6627,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6836,14 +6642,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -7369,7 +7169,7 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="241">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7380,7 +7180,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -7396,25 +7196,25 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -7426,7 +7226,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -7434,11 +7234,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -7470,35 +7270,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -7510,22 +7320,26 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -7555,15 +7369,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -7573,7 +7385,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -7582,14 +7394,13 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -7598,17 +7409,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -7617,10 +7427,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
@@ -7636,21 +7446,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -7669,17 +7473,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -7688,36 +7491,34 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -7738,7 +7539,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -7746,7 +7547,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -7759,6 +7560,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -7766,10 +7578,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -7790,7 +7602,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -7799,14 +7611,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -7820,27 +7631,26 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -7857,9 +7667,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -7872,14 +7682,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -7888,16 +7692,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>528637</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>114298</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>313325</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142313</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>214312</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>80961</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>611321</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>108976</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7924,27 +7728,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>347382</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>113180</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>427463</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>94808</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>78441</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>189380</xdr:rowOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>113138</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>28814</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="11" name="Chart 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7AD74B3-3CB0-431D-818F-E5672DF9DE13}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F15159D1-2EEE-447F-B9A9-8D344902669B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -7960,23 +7766,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>507065</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>8404</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>412232</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>89437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>192740</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>70317</xdr:rowOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>103968</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>45709</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Chart 10">
+        <xdr:cNvPr id="13" name="Chart 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F15159D1-2EEE-447F-B9A9-8D344902669B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F959786F-12CF-4B79-A887-C6603190E675}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7998,23 +7804,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>297996</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>157163</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>366156</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>170707</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="13" name="Chart 12">
+        <xdr:cNvPr id="9" name="Chart 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F959786F-12CF-4B79-A887-C6603190E675}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB999CB8-E984-4537-AF92-6C263ED4429D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8334,10 +8140,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92D44836-C5CF-4ACF-9E70-11CC3886D880}">
-  <dimension ref="B2:L39"/>
+  <dimension ref="B2:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB66" sqref="AB66"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8345,7 +8151,7 @@
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -8380,7 +8186,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>100</v>
       </c>
@@ -8415,7 +8221,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>500</v>
       </c>
@@ -8450,7 +8256,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1000</v>
       </c>
@@ -8485,7 +8291,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>5000</v>
       </c>
@@ -8520,7 +8326,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>10000</v>
       </c>
@@ -8555,7 +8361,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>25000</v>
       </c>
@@ -8590,7 +8396,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>50000</v>
       </c>
@@ -8624,8 +8430,9 @@
       <c r="L9">
         <v>196</v>
       </c>
+      <c r="M9" s="4"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>75000</v>
       </c>
@@ -8659,8 +8466,9 @@
       <c r="L10">
         <v>145</v>
       </c>
+      <c r="M10" s="4"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>100000</v>
       </c>
@@ -8694,20 +8502,12 @@
       <c r="L11">
         <v>132</v>
       </c>
+      <c r="M11" s="4"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>500000</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
       <c r="F12">
         <v>568</v>
       </c>
@@ -8729,20 +8529,12 @@
       <c r="L12">
         <v>789</v>
       </c>
+      <c r="M12" s="4"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>1000000</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
       <c r="F13">
         <v>901</v>
       </c>
@@ -8764,20 +8556,12 @@
       <c r="L13">
         <v>950</v>
       </c>
+      <c r="M13" s="4"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>5000000</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
       <c r="F14">
         <v>3756</v>
       </c>
@@ -8799,20 +8583,12 @@
       <c r="L14">
         <v>3471</v>
       </c>
+      <c r="M14" s="4"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>10000000</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
       <c r="F15">
         <v>7966</v>
       </c>
@@ -8834,20 +8610,12 @@
       <c r="L15">
         <v>6316</v>
       </c>
+      <c r="M15" s="4"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>25000000</v>
       </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
       <c r="F16">
         <v>31611</v>
       </c>
@@ -8869,20 +8637,12 @@
       <c r="L16">
         <v>18453</v>
       </c>
+      <c r="M16" s="4"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>40000000</v>
       </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
       <c r="F17">
         <v>51616</v>
       </c>
@@ -8904,20 +8664,12 @@
       <c r="L17">
         <v>33763</v>
       </c>
+      <c r="M17" s="4"/>
     </row>
-    <row r="18" spans="2:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>50000000</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
       <c r="F18">
         <v>52934</v>
       </c>
@@ -8939,14 +8691,13 @@
       <c r="L18">
         <v>47321</v>
       </c>
+      <c r="M18" s="4"/>
     </row>
-    <row r="19" spans="2:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>75000000</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="F19" s="3"/>
       <c r="G19">
         <v>82493</v>
       </c>
@@ -8957,15 +8708,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <v>100000000</v>
-      </c>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="G20" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>0</v>
       </c>
@@ -8985,7 +8733,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>100</v>
       </c>
@@ -9005,7 +8753,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>500</v>
       </c>
@@ -9025,7 +8773,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>1000</v>
       </c>
@@ -9045,7 +8793,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>5000</v>
       </c>
@@ -9065,7 +8813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>10000</v>
       </c>
@@ -9085,7 +8833,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>25000</v>
       </c>
@@ -9105,7 +8853,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>50000</v>
       </c>
@@ -9125,7 +8873,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>75000</v>
       </c>
@@ -9145,7 +8893,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>100000</v>
       </c>
@@ -9165,7 +8913,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>500000</v>
       </c>

--- a/algoritmi.xlsx
+++ b/algoritmi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yelja\Desktop\PRS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D32D3A5-B7D7-445F-8800-EF4F3C1FF62B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873D7B89-7516-4965-8FE8-9F66C60880CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A54C7A4A-AE82-4F91-B10F-0D4CB631609E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Dužina niza</t>
   </si>
@@ -2449,7 +2449,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4787,8 +4787,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.18873736041660283"/>
-          <c:y val="7.6563599688572265E-2"/>
+          <c:x val="0.17980496202619489"/>
+          <c:y val="1.541581228161302E-2"/>
           <c:w val="0.66771346078707627"/>
           <c:h val="0.82169233995036006"/>
         </c:manualLayout>
@@ -15975,15 +15975,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>157842</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>529749</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>167893</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>580096</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>48830</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16051,15 +16051,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>40821</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>377349</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>42027</xdr:rowOff>
+      <xdr:colOff>424974</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>37264</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16424,15 +16424,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92D44836-C5CF-4ACF-9E70-11CC3886D880}">
-  <dimension ref="B2:Q45"/>
+  <dimension ref="B2:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
@@ -17239,558 +17240,6 @@
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="G20" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" t="s">
-        <v>6</v>
-      </c>
-      <c r="H27" t="s">
-        <v>7</v>
-      </c>
-      <c r="I27" t="s">
-        <v>8</v>
-      </c>
-      <c r="J27" t="s">
-        <v>9</v>
-      </c>
-      <c r="K27" t="s">
-        <v>10</v>
-      </c>
-      <c r="L27" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28">
-        <v>100</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>3</v>
-      </c>
-      <c r="I28">
-        <v>2</v>
-      </c>
-      <c r="J28">
-        <v>3</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B29">
-        <v>500</v>
-      </c>
-      <c r="C29">
-        <v>9</v>
-      </c>
-      <c r="D29">
-        <v>5</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>6</v>
-      </c>
-      <c r="I29">
-        <v>5</v>
-      </c>
-      <c r="J29">
-        <v>8</v>
-      </c>
-      <c r="K29">
-        <v>5</v>
-      </c>
-      <c r="L29">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B30">
-        <v>1000</v>
-      </c>
-      <c r="C30">
-        <v>27</v>
-      </c>
-      <c r="D30">
-        <v>7</v>
-      </c>
-      <c r="E30">
-        <v>8</v>
-      </c>
-      <c r="F30">
-        <v>2</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-      <c r="H30">
-        <v>8</v>
-      </c>
-      <c r="I30">
-        <v>7</v>
-      </c>
-      <c r="J30">
-        <v>9</v>
-      </c>
-      <c r="K30">
-        <v>6</v>
-      </c>
-      <c r="L30">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B31">
-        <v>5000</v>
-      </c>
-      <c r="C31">
-        <v>141</v>
-      </c>
-      <c r="D31">
-        <v>84</v>
-      </c>
-      <c r="E31">
-        <v>87</v>
-      </c>
-      <c r="F31">
-        <v>5</v>
-      </c>
-      <c r="G31">
-        <v>2</v>
-      </c>
-      <c r="H31">
-        <v>29</v>
-      </c>
-      <c r="I31">
-        <v>12</v>
-      </c>
-      <c r="J31">
-        <v>29</v>
-      </c>
-      <c r="K31">
-        <v>21</v>
-      </c>
-      <c r="L31">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B32">
-        <v>10000</v>
-      </c>
-      <c r="C32">
-        <v>570</v>
-      </c>
-      <c r="D32">
-        <v>211</v>
-      </c>
-      <c r="E32">
-        <v>156</v>
-      </c>
-      <c r="F32">
-        <v>9</v>
-      </c>
-      <c r="G32">
-        <v>8</v>
-      </c>
-      <c r="H32">
-        <v>49</v>
-      </c>
-      <c r="I32">
-        <v>24</v>
-      </c>
-      <c r="J32">
-        <v>60</v>
-      </c>
-      <c r="K32">
-        <v>18</v>
-      </c>
-      <c r="L32">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B33">
-        <v>25000</v>
-      </c>
-      <c r="C33">
-        <v>4769</v>
-      </c>
-      <c r="D33">
-        <v>1596</v>
-      </c>
-      <c r="E33">
-        <v>719</v>
-      </c>
-      <c r="F33">
-        <v>23</v>
-      </c>
-      <c r="G33">
-        <v>11</v>
-      </c>
-      <c r="H33">
-        <v>66</v>
-      </c>
-      <c r="I33">
-        <v>67</v>
-      </c>
-      <c r="J33">
-        <v>75</v>
-      </c>
-      <c r="K33">
-        <v>100</v>
-      </c>
-      <c r="L33">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B34">
-        <v>50000</v>
-      </c>
-      <c r="C34">
-        <v>22830</v>
-      </c>
-      <c r="D34">
-        <v>7167</v>
-      </c>
-      <c r="E34">
-        <v>2857</v>
-      </c>
-      <c r="F34">
-        <v>55</v>
-      </c>
-      <c r="G34">
-        <v>35</v>
-      </c>
-      <c r="H34">
-        <v>80</v>
-      </c>
-      <c r="I34">
-        <v>127</v>
-      </c>
-      <c r="J34">
-        <v>90</v>
-      </c>
-      <c r="K34">
-        <v>289</v>
-      </c>
-      <c r="L34">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B35">
-        <v>75000</v>
-      </c>
-      <c r="C35">
-        <v>59191</v>
-      </c>
-      <c r="D35">
-        <v>15785</v>
-      </c>
-      <c r="E35">
-        <v>6236</v>
-      </c>
-      <c r="F35">
-        <v>110</v>
-      </c>
-      <c r="G35">
-        <v>64</v>
-      </c>
-      <c r="H35">
-        <v>160</v>
-      </c>
-      <c r="I35">
-        <v>140</v>
-      </c>
-      <c r="J35">
-        <v>124</v>
-      </c>
-      <c r="K35">
-        <v>141</v>
-      </c>
-      <c r="L35">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B36">
-        <v>100000</v>
-      </c>
-      <c r="C36">
-        <v>76006</v>
-      </c>
-      <c r="D36">
-        <v>27226</v>
-      </c>
-      <c r="E36">
-        <v>11798</v>
-      </c>
-      <c r="F36">
-        <v>158</v>
-      </c>
-      <c r="G36">
-        <v>49</v>
-      </c>
-      <c r="H36">
-        <v>130</v>
-      </c>
-      <c r="I36">
-        <v>220</v>
-      </c>
-      <c r="J36">
-        <v>105</v>
-      </c>
-      <c r="K36">
-        <v>193</v>
-      </c>
-      <c r="L36">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B37">
-        <v>500000</v>
-      </c>
-      <c r="F37">
-        <v>568</v>
-      </c>
-      <c r="G37">
-        <v>282</v>
-      </c>
-      <c r="H37">
-        <v>580</v>
-      </c>
-      <c r="I37">
-        <v>580</v>
-      </c>
-      <c r="J37">
-        <v>545</v>
-      </c>
-      <c r="K37">
-        <v>985</v>
-      </c>
-      <c r="L37">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B38">
-        <v>1000000</v>
-      </c>
-      <c r="F38">
-        <v>901</v>
-      </c>
-      <c r="G38">
-        <v>511</v>
-      </c>
-      <c r="H38">
-        <v>1000</v>
-      </c>
-      <c r="I38">
-        <v>946</v>
-      </c>
-      <c r="J38">
-        <v>805</v>
-      </c>
-      <c r="K38">
-        <v>1018</v>
-      </c>
-      <c r="L38">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B39">
-        <v>5000000</v>
-      </c>
-      <c r="F39">
-        <v>3756</v>
-      </c>
-      <c r="G39">
-        <v>3220</v>
-      </c>
-      <c r="H39">
-        <v>3532</v>
-      </c>
-      <c r="I39">
-        <v>3297</v>
-      </c>
-      <c r="J39">
-        <v>2387</v>
-      </c>
-      <c r="K39">
-        <v>2157</v>
-      </c>
-      <c r="L39">
-        <v>1430</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B40">
-        <v>10000000</v>
-      </c>
-      <c r="F40">
-        <v>7966</v>
-      </c>
-      <c r="G40">
-        <v>7207</v>
-      </c>
-      <c r="H40">
-        <v>10832</v>
-      </c>
-      <c r="I40">
-        <v>9559</v>
-      </c>
-      <c r="J40">
-        <v>4655</v>
-      </c>
-      <c r="K40">
-        <v>5690</v>
-      </c>
-      <c r="L40">
-        <v>3269</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B41">
-        <v>25000000</v>
-      </c>
-      <c r="F41">
-        <v>31611</v>
-      </c>
-      <c r="G41">
-        <v>21299</v>
-      </c>
-      <c r="H41">
-        <v>44071</v>
-      </c>
-      <c r="I41">
-        <v>37071</v>
-      </c>
-      <c r="J41">
-        <v>19903</v>
-      </c>
-      <c r="K41">
-        <v>17649</v>
-      </c>
-      <c r="L41">
-        <v>17706</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B42">
-        <v>40000000</v>
-      </c>
-      <c r="F42">
-        <v>51616</v>
-      </c>
-      <c r="G42">
-        <v>39907</v>
-      </c>
-      <c r="H42">
-        <v>61691</v>
-      </c>
-      <c r="I42">
-        <v>59004</v>
-      </c>
-      <c r="J42">
-        <v>43751</v>
-      </c>
-      <c r="K42">
-        <v>39243</v>
-      </c>
-      <c r="L42">
-        <v>29435</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B43" s="1">
-        <v>50000000</v>
-      </c>
-      <c r="F43">
-        <v>52934</v>
-      </c>
-      <c r="G43">
-        <v>46993</v>
-      </c>
-      <c r="H43">
-        <v>95488</v>
-      </c>
-      <c r="I43">
-        <v>86846</v>
-      </c>
-      <c r="J43">
-        <v>66271</v>
-      </c>
-      <c r="K43">
-        <v>60824</v>
-      </c>
-      <c r="L43">
-        <v>48983</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B44" s="1">
-        <v>75000000</v>
-      </c>
-      <c r="F44" s="2"/>
-      <c r="G44">
-        <v>82493</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G45" s="3" t="s">
         <v>1</v>
       </c>
     </row>

--- a/algoritmi.xlsx
+++ b/algoritmi.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yelja\Desktop\PRS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3142AF43-2680-474B-948D-38617C78174E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A54C7A4A-AE82-4F91-B10F-0D4CB631609E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27960" windowHeight="15180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -90,7 +84,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -180,7 +174,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -223,6 +217,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -231,26 +226,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -404,7 +379,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6B1A-43E5-B0BC-43F948E4B7E4}"/>
             </c:ext>
@@ -546,7 +521,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000002C-6B1A-43E5-B0BC-43F948E4B7E4}"/>
             </c:ext>
@@ -688,7 +663,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000002D-6B1A-43E5-B0BC-43F948E4B7E4}"/>
             </c:ext>
@@ -849,7 +824,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000002E-6B1A-43E5-B0BC-43F948E4B7E4}"/>
             </c:ext>
@@ -1013,7 +988,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000002F-6B1A-43E5-B0BC-43F948E4B7E4}"/>
             </c:ext>
@@ -1027,11 +1002,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="294370880"/>
-        <c:axId val="294371208"/>
+        <c:axId val="109522304"/>
+        <c:axId val="109528960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="294370880"/>
+        <c:axId val="109522304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1078,6 +1053,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1086,26 +1062,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1144,12 +1100,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="294371208"/>
+        <c:crossAx val="109528960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="294371208"/>
+        <c:axId val="109528960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1216,26 +1172,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1274,7 +1210,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="294370880"/>
+        <c:crossAx val="109522304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1288,6 +1224,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1355,7 +1292,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1398,6 +1335,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1406,26 +1344,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1597,7 +1515,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4815-48D1-9ECC-96ED75201F8E}"/>
             </c:ext>
@@ -1757,7 +1675,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-4815-48D1-9ECC-96ED75201F8E}"/>
             </c:ext>
@@ -1917,7 +1835,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000A-4815-48D1-9ECC-96ED75201F8E}"/>
             </c:ext>
@@ -2075,7 +1993,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000B-4815-48D1-9ECC-96ED75201F8E}"/>
             </c:ext>
@@ -2233,7 +2151,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000028-3D5C-4FA1-A8DE-F5375895807C}"/>
             </c:ext>
@@ -2247,11 +2165,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="294370880"/>
-        <c:axId val="294371208"/>
+        <c:axId val="109256704"/>
+        <c:axId val="109258240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="294370880"/>
+        <c:axId val="109256704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2298,6 +2216,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2306,26 +2225,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2364,12 +2263,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="294371208"/>
+        <c:crossAx val="109258240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="294371208"/>
+        <c:axId val="109258240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2420,6 +2319,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2428,26 +2328,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2486,7 +2366,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="294370880"/>
+        <c:crossAx val="109256704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2500,6 +2380,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2567,7 +2448,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2610,6 +2491,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2618,26 +2500,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2749,7 +2611,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-ADBF-45EE-9A80-70C1FB0D572F}"/>
             </c:ext>
@@ -2849,7 +2711,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-ADBF-45EE-9A80-70C1FB0D572F}"/>
             </c:ext>
@@ -2949,7 +2811,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-ADBF-45EE-9A80-70C1FB0D572F}"/>
             </c:ext>
@@ -3047,7 +2909,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-ADBF-45EE-9A80-70C1FB0D572F}"/>
             </c:ext>
@@ -3145,7 +3007,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-ADBF-45EE-9A80-70C1FB0D572F}"/>
             </c:ext>
@@ -3159,11 +3021,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="294370880"/>
-        <c:axId val="294371208"/>
+        <c:axId val="109308544"/>
+        <c:axId val="109319296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="294370880"/>
+        <c:axId val="109308544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3210,6 +3072,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3218,26 +3081,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -3276,12 +3119,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="294371208"/>
+        <c:crossAx val="109319296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="294371208"/>
+        <c:axId val="109319296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3348,26 +3191,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -3406,7 +3229,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="294370880"/>
+        <c:crossAx val="109308544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3420,6 +3243,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3487,7 +3311,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3539,6 +3363,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3547,26 +3372,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -3738,7 +3543,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1EBB-4668-97C9-CBD5704DD65B}"/>
             </c:ext>
@@ -3898,7 +3703,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1EBB-4668-97C9-CBD5704DD65B}"/>
             </c:ext>
@@ -4058,7 +3863,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000A-1EBB-4668-97C9-CBD5704DD65B}"/>
             </c:ext>
@@ -4216,7 +4021,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000B-1EBB-4668-97C9-CBD5704DD65B}"/>
             </c:ext>
@@ -4374,7 +4179,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000C-1EBB-4668-97C9-CBD5704DD65B}"/>
             </c:ext>
@@ -4388,11 +4193,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="294370880"/>
-        <c:axId val="294371208"/>
+        <c:axId val="109473792"/>
+        <c:axId val="109476096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="294370880"/>
+        <c:axId val="109473792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4439,6 +4244,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4447,26 +4253,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -4505,12 +4291,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="294371208"/>
+        <c:crossAx val="109476096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="294371208"/>
+        <c:axId val="109476096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4561,6 +4347,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4569,26 +4356,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -4627,7 +4394,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="294370880"/>
+        <c:crossAx val="109473792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4641,6 +4408,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4708,7 +4476,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4751,6 +4519,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4759,26 +4528,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -4950,7 +4699,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-CB2A-443B-BA54-79B237690A7B}"/>
             </c:ext>
@@ -5110,7 +4859,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000F-CB2A-443B-BA54-79B237690A7B}"/>
             </c:ext>
@@ -5270,7 +5019,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000010-CB2A-443B-BA54-79B237690A7B}"/>
             </c:ext>
@@ -5278,7 +5027,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="5"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$M$2</c:f>
@@ -5430,7 +5179,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000013-CB2A-443B-BA54-79B237690A7B}"/>
             </c:ext>
@@ -5438,7 +5187,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
-          <c:order val="6"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$N$2</c:f>
@@ -5592,7 +5341,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000014-CB2A-443B-BA54-79B237690A7B}"/>
             </c:ext>
@@ -5600,7 +5349,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
-          <c:order val="7"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$O$2</c:f>
@@ -5758,7 +5507,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000015-CB2A-443B-BA54-79B237690A7B}"/>
             </c:ext>
@@ -5772,9 +5521,9 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="294370880"/>
-        <c:axId val="294371208"/>
-        <c:extLst>
+        <c:axId val="109863680"/>
+        <c:axId val="109865984"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
               <c15:ser>
@@ -6508,7 +6257,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="294370880"/>
+        <c:axId val="109863680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6555,6 +6304,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6563,26 +6313,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -6621,12 +6351,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="294371208"/>
+        <c:crossAx val="109865984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="294371208"/>
+        <c:axId val="109865984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6677,6 +6407,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6685,26 +6416,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -6743,7 +6454,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="294370880"/>
+        <c:crossAx val="109863680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6757,6 +6468,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6824,7 +6536,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6868,6 +6580,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6876,26 +6589,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -6915,7 +6608,7 @@
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="0"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$K$2</c:f>
@@ -6925,7 +6618,7 @@
                   <c:v>Merge P</c:v>
                 </c:pt>
               </c:strCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -7006,7 +6699,7 @@
                   <c:v>50000000</c:v>
                 </c:pt>
               </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:xVal>
           <c:yVal>
@@ -7064,11 +6757,11 @@
                   <c:v>46809</c:v>
                 </c:pt>
               </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-A83F-4F9D-ACDE-A3D3A11DCCA8}"/>
             </c:ext>
@@ -7076,7 +6769,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$L$2</c:f>
@@ -7086,7 +6779,7 @@
                   <c:v>Quick P</c:v>
                 </c:pt>
               </c:strCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -7167,7 +6860,7 @@
                   <c:v>50000000</c:v>
                 </c:pt>
               </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:xVal>
           <c:yVal>
@@ -7225,11 +6918,11 @@
                   <c:v>47321</c:v>
                 </c:pt>
               </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-A83F-4F9D-ACDE-A3D3A11DCCA8}"/>
             </c:ext>
@@ -7237,7 +6930,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
-          <c:order val="8"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$P$2</c:f>
@@ -7247,7 +6940,7 @@
                   <c:v>Merge P2</c:v>
                 </c:pt>
               </c:strCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -7336,7 +7029,7 @@
                   <c:v>50000000</c:v>
                 </c:pt>
               </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:xVal>
           <c:yVal>
@@ -7394,11 +7087,11 @@
                   <c:v>60824</c:v>
                 </c:pt>
               </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-A83F-4F9D-ACDE-A3D3A11DCCA8}"/>
             </c:ext>
@@ -7406,7 +7099,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
-          <c:order val="9"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$Q$2</c:f>
@@ -7416,7 +7109,7 @@
                   <c:v>Quick P2</c:v>
                 </c:pt>
               </c:strCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -7505,7 +7198,7 @@
                   <c:v>50000000</c:v>
                 </c:pt>
               </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:xVal>
           <c:yVal>
@@ -7563,11 +7256,11 @@
                   <c:v>48983</c:v>
                 </c:pt>
               </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000009-A83F-4F9D-ACDE-A3D3A11DCCA8}"/>
             </c:ext>
@@ -7581,9 +7274,9 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="294370880"/>
-        <c:axId val="294371208"/>
-        <c:extLst>
+        <c:axId val="109924352"/>
+        <c:axId val="109926656"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
               <c15:ser>
@@ -8677,7 +8370,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="294370880"/>
+        <c:axId val="109924352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8724,6 +8417,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8732,26 +8426,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -8790,12 +8464,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="294371208"/>
+        <c:crossAx val="109926656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="294371208"/>
+        <c:axId val="109926656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8846,6 +8520,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8854,26 +8529,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -8912,7 +8567,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="294370880"/>
+        <c:crossAx val="109924352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8926,6 +8581,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8993,7 +8649,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -9045,26 +8701,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -9212,7 +8848,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-CE79-4EEF-88DF-AC441797E735}"/>
             </c:ext>
@@ -9348,7 +8984,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-CE79-4EEF-88DF-AC441797E735}"/>
             </c:ext>
@@ -9484,7 +9120,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-CE79-4EEF-88DF-AC441797E735}"/>
             </c:ext>
@@ -9639,7 +9275,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000010-CE79-4EEF-88DF-AC441797E735}"/>
             </c:ext>
@@ -9794,7 +9430,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000011-CE79-4EEF-88DF-AC441797E735}"/>
             </c:ext>
@@ -9951,7 +9587,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000012-CE79-4EEF-88DF-AC441797E735}"/>
             </c:ext>
@@ -9965,11 +9601,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="294370880"/>
-        <c:axId val="294371208"/>
+        <c:axId val="110117248"/>
+        <c:axId val="110119552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="294370880"/>
+        <c:axId val="110117248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10024,26 +9660,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -10082,12 +9698,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="294371208"/>
+        <c:crossAx val="110119552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="294371208"/>
+        <c:axId val="110119552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10146,26 +9762,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -10204,7 +9800,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="294370880"/>
+        <c:crossAx val="110117248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10285,7 +9881,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -10332,26 +9928,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -10523,7 +10099,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-01B7-497A-BF9B-A7E7965251CD}"/>
             </c:ext>
@@ -10683,7 +10259,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-01B7-497A-BF9B-A7E7965251CD}"/>
             </c:ext>
@@ -10841,7 +10417,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000001C-01B7-497A-BF9B-A7E7965251CD}"/>
             </c:ext>
@@ -10999,7 +10575,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000001D-01B7-497A-BF9B-A7E7965251CD}"/>
             </c:ext>
@@ -11013,11 +10589,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="294370880"/>
-        <c:axId val="294371208"/>
+        <c:axId val="109663360"/>
+        <c:axId val="109665664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="294370880"/>
+        <c:axId val="109663360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11072,26 +10648,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -11130,12 +10686,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="294371208"/>
+        <c:crossAx val="109665664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="294371208"/>
+        <c:axId val="109665664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11202,26 +10758,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -11260,7 +10796,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="294370880"/>
+        <c:crossAx val="109663360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15840,7 +15376,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CDE5E88-60C7-4307-ACB6-668AAB3F1F8C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2CDE5E88-60C7-4307-ACB6-668AAB3F1F8C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15876,7 +15412,7 @@
         <xdr:cNvPr id="11" name="Chart 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F15159D1-2EEE-447F-B9A9-8D344902669B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F15159D1-2EEE-447F-B9A9-8D344902669B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15914,7 +15450,7 @@
         <xdr:cNvPr id="9" name="Chart 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB999CB8-E984-4537-AF92-6C263ED4429D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CB999CB8-E984-4537-AF92-6C263ED4429D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15952,7 +15488,7 @@
         <xdr:cNvPr id="10" name="Chart 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6888001-24CD-4CA5-B934-F118B2EB9F30}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6888001-24CD-4CA5-B934-F118B2EB9F30}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15990,7 +15526,7 @@
         <xdr:cNvPr id="14" name="Chart 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06F51470-DB6D-4A3C-9EA1-FB7FC01C6630}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{06F51470-DB6D-4A3C-9EA1-FB7FC01C6630}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16028,7 +15564,7 @@
         <xdr:cNvPr id="15" name="Chart 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E72E192-F3A9-497A-95B0-4DFED24EFD62}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4E72E192-F3A9-497A-95B0-4DFED24EFD62}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16066,7 +15602,7 @@
         <xdr:cNvPr id="18" name="Chart 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B0E71AA-0BE4-4FDD-9C6E-BCFD85D1BEF8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1B0E71AA-0BE4-4FDD-9C6E-BCFD85D1BEF8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16104,7 +15640,7 @@
         <xdr:cNvPr id="19" name="Chart 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DB9F0CB-4916-45F8-9500-BB5459F43BA2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DB9F0CB-4916-45F8-9500-BB5459F43BA2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16170,7 +15706,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -16222,7 +15758,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -16416,23 +15952,25 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92D44836-C5CF-4ACF-9E70-11CC3886D880}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AM56" sqref="AM56:AM57"/>
+    <sheetView tabSelected="1" topLeftCell="I52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
